--- a/evodebt/vuln.xlsx
+++ b/evodebt/vuln.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\research_code\evodebt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D08B2B-DEB2-41DC-98D1-AD49AFE5F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E4DEC7-0106-4239-80A2-A69F7FFA6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FECA8CFB-D584-49F0-B3BD-FF800DED0130}"/>
+    <workbookView xWindow="-21720" yWindow="450" windowWidth="21840" windowHeight="13020" xr2:uid="{FECA8CFB-D584-49F0-B3BD-FF800DED0130}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E182E79-62BF-44E5-AE43-14E54EB001C3}">
   <dimension ref="B2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
     <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" customWidth="1"/>
     <col min="11" max="12" width="11.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
